--- a/wagers.xlsx
+++ b/wagers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsaim\organized_crime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{80A96AD8-7EF0-4F33-ACBB-37590A826CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BA8B8C38-4715-4BA0-B26B-5CEBA1DC0658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AE83BEC-E37F-48B5-AC26-A71A34B4CBFE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Player</t>
   </si>
@@ -29,24 +29,6 @@
   </si>
   <si>
     <t>Wager</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Heads</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Tails</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Homer</t>
   </si>
 </sst>
 </file>
@@ -887,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9061707-AFC9-45E5-93BE-7004AA62D6A4}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,50 +888,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>516</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
